--- a/assets/prepared/BLA.xlsx
+++ b/assets/prepared/BLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5522,13 +5522,13 @@
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
-        <v>6060</v>
+        <v>8363</v>
       </c>
       <c r="E233" t="n">
-        <v>1088923</v>
+        <v>1505100</v>
       </c>
       <c r="F233" t="n">
-        <v>5189504</v>
+        <v>6950610</v>
       </c>
     </row>
     <row r="234">
@@ -5595,6 +5595,28 @@
       </c>
       <c r="F236" t="n">
         <v>1825995</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2303</v>
+      </c>
+      <c r="E237" t="n">
+        <v>416177</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1761106</v>
       </c>
     </row>
   </sheetData>
